--- a/SpaOnline/Servicio - Muestreo Datos.xlsx
+++ b/SpaOnline/Servicio - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC245C18-2A28-4114-9D6A-ADBC88CCCA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C23FC-EA98-4E93-8FDC-F47406428CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView minimized="1" xWindow="1125" yWindow="375" windowWidth="15060" windowHeight="10770" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -72,18 +72,12 @@
     <t>Contextro</t>
   </si>
   <si>
-    <t>Fabricante</t>
-  </si>
-  <si>
     <t>Propio</t>
   </si>
   <si>
     <t>Identificador</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
     <t>Combinacion única</t>
   </si>
   <si>
@@ -94,6 +88,18 @@
   </si>
   <si>
     <t>Objeto de dominio que contiene la informacion de los servicios que ofrece el Spa</t>
+  </si>
+  <si>
+    <t>Limpieza facial</t>
+  </si>
+  <si>
+    <t>Masaje completo</t>
+  </si>
+  <si>
+    <t>Chocolaterapia</t>
+  </si>
+  <si>
+    <t>Nombre Servicio</t>
   </si>
 </sst>
 </file>
@@ -631,16 +637,16 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -651,65 +657,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="4" t="str">
-        <f>B2&amp;"-"&amp;C2</f>
-        <v>-</v>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>+B2</f>
+        <v>Limpieza facial</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4" t="str">
-        <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
-        <v>-</v>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f t="shared" ref="C3:C4" si="0">+B3</f>
+        <v>Masaje completo</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4" t="str">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>Chocolaterapia</v>
       </c>
     </row>
   </sheetData>
